--- a/Scrape.xlsx
+++ b/Scrape.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jared\Documents\GitHub\chinesetingxie.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5EDD6BA-A42C-4C4A-B6D3-55414B0D34A4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33A45B23-2341-47F1-B72A-433012E17059}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,99 +34,201 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="65">
   <si>
     <t>https://www.mtl.moe.edu.sg/xuele/PYCB/Files/</t>
   </si>
   <si>
-    <t>{ src: 'sound-moe_l1_learn_a.mp3', id: 'sound-moe_l1_learn_a' },</t>
-  </si>
-  <si>
-    <t>{ src: 'sound-moe_l1_learn_ayi.mp3', id: 'sound-moe_l1_learn_ayi' },</t>
-  </si>
-  <si>
-    <t>{ src: 'sound-moe_l1_learn_e.mp3', id: 'sound-moe_l1_learn_e' },</t>
-  </si>
-  <si>
-    <t>{ src: 'sound-moe_l1_learn_i.mp3', id: 'sound-moe_l1_learn_i' },</t>
-  </si>
-  <si>
-    <t>{ src: 'sound-moe_l1_learn_o.mp3', id: 'sound-moe_l1_learn_o' },</t>
-  </si>
-  <si>
-    <t>{ src: 'sound-moe_l1_learn_u.mp3', id: 'sound-moe_l1_learn_u' },</t>
-  </si>
-  <si>
-    <t>{ src: 'sound-moe_l1_learn_v.mp3', id: 'sound-moe_l1_learn_v' },</t>
-  </si>
-  <si>
-    <t>{ src: 'sound-moe_l1_learn_w.mp3', id: 'sound-moe_l1_learn_w' },</t>
-  </si>
-  <si>
-    <t>{ src: 'sound-moe_l1_learn_wa.mp3', id: 'sound-moe_l1_learn_wa' },</t>
-  </si>
-  <si>
-    <t>{ src: 'sound-moe_l1_learn_wa4.mp3', id: 'sound-moe_l1_learn_wa4' },</t>
-  </si>
-  <si>
-    <t>{ src: 'sound-moe_l1_learn_wawa.mp3', id: 'sound-moe_l1_learn_wawa' },</t>
-  </si>
-  <si>
-    <t>{ src: 'sound-moe_l1_learn_wo.mp3', id: 'sound-moe_l1_learn_wo' },</t>
-  </si>
-  <si>
-    <t>{ src: 'sound-moe_l1_learn_wo1.mp3', id: 'sound-moe_l1_learn_wo1' },</t>
-  </si>
-  <si>
-    <t>{ src: 'sound-moe_l1_learn_wo3.mp3', id: 'sound-moe_l1_learn_wo3' },</t>
-  </si>
-  <si>
-    <t>{ src: 'sound-moe_l1_learn_wu.mp3', id: 'sound-moe_l1_learn_wu' },</t>
-  </si>
-  <si>
-    <t>{ src: 'sound-moe_l1_learn_wu1.mp3', id: 'sound-moe_l1_learn_wu1' },</t>
-  </si>
-  <si>
-    <t>{ src: 'sound-moe_l1_learn_wu3.mp3', id: 'sound-moe_l1_learn_wu3' },</t>
-  </si>
-  <si>
-    <t>{ src: 'sound-moe_l1_learn_wuya.mp3', id: 'sound-moe_l1_learn_wuya' },</t>
-  </si>
-  <si>
-    <t>{ src: 'sound-moe_l1_learn_y.mp3', id: 'sound-moe_l1_learn_y' },</t>
-  </si>
-  <si>
-    <t>{ src: 'sound-moe_l1_learn_ya.mp3', id: 'sound-moe_l1_learn_ya' },</t>
-  </si>
-  <si>
-    <t>{ src: 'sound-moe_l1_learn_ya1.mp3', id: 'sound-moe_l1_learn_ya1' },</t>
-  </si>
-  <si>
-    <t>{ src: 'sound-moe_l1_learn_ya2.mp3', id: 'sound-moe_l1_learn_ya2' },</t>
-  </si>
-  <si>
-    <t>{ src: 'sound-moe_l1_learn_ya3.mp3', id: 'sound-moe_l1_learn_ya3' },</t>
-  </si>
-  <si>
-    <t>{ src: 'sound-moe_l1_learn_yi.mp3', id: 'sound-moe_l1_learn_yi' },</t>
-  </si>
-  <si>
-    <t>{ src: 'sound-moe_l1_learn_yi1.mp3', id: 'sound-moe_l1_learn_yi1' },</t>
-  </si>
-  <si>
-    <t>{ src: 'sound-moe_l1_learn_yi3.mp3', id: 'sound-moe_l1_learn_yi3' },</t>
-  </si>
-  <si>
-    <t>{ src: 'sound-moe_l1_learn_yu.mp3', id: 'sound-moe_l1_learn_yu' },</t>
-  </si>
-  <si>
-    <t>{ src: 'sound-moe_l1_learn_yu2.mp3', id: 'sound-moe_l1_learn_yu2' },</t>
-  </si>
-  <si>
-    <t>{ src: 'sound-moe_l1_learn_yu3.mp3', id: 'sound-moe_l1_learn_yu3' },</t>
-  </si>
-  <si>
-    <t>{ src: 'sound-moe_l1_learn_yuyi.mp3', id: 'sound-moe_l1_learn_yuyi' }</t>
+    <t>{ src: 'sound-moe_l2_learn_b.mp3', id: 'sound-moe_l2_learn_b' },</t>
+  </si>
+  <si>
+    <t>{ src: 'sound-moe_l2_learn_ba.mp3', id: 'sound-moe_l2_learn_ba' },</t>
+  </si>
+  <si>
+    <t>{ src: 'sound-moe_l2_learn_ba1.mp3', id: 'sound-moe_l2_learn_ba1' },</t>
+  </si>
+  <si>
+    <t>{ src: 'sound-moe_l2_learn_ba2.mp3', id: 'sound-moe_l2_learn_ba2' },</t>
+  </si>
+  <si>
+    <t>{ src: 'sound-moe_l2_learn_baba.mp3', id: 'sound-moe_l2_learn_baba' },</t>
+  </si>
+  <si>
+    <t>{ src: 'sound-moe_l2_learn_bi.mp3', id: 'sound-moe_l2_learn_bi' },</t>
+  </si>
+  <si>
+    <t>{ src: 'sound-moe_l2_learn_bi3.mp3', id: 'sound-moe_l2_learn_bi3' },</t>
+  </si>
+  <si>
+    <t>{ src: 'sound-moe_l2_learn_bo.mp3', id: 'sound-moe_l2_learn_bo' },</t>
+  </si>
+  <si>
+    <t>{ src: 'sound-moe_l2_learn_bu.mp3', id: 'sound-moe_l2_learn_bu' },</t>
+  </si>
+  <si>
+    <t>{ src: 'sound-moe_l2_learn_d.mp3', id: 'sound-moe_l2_learn_d' },</t>
+  </si>
+  <si>
+    <t>{ src: 'sound-moe_l2_learn_da.mp3', id: 'sound-moe_l2_learn_da' },</t>
+  </si>
+  <si>
+    <t>{ src: 'sound-moe_l2_learn_da4.mp3', id: 'sound-moe_l2_learn_da4' },</t>
+  </si>
+  <si>
+    <t>{ src: 'sound-moe_l2_learn_de.mp3', id: 'sound-moe_l2_learn_de' },</t>
+  </si>
+  <si>
+    <t>{ src: 'sound-moe_l2_learn_di.mp3', id: 'sound-moe_l2_learn_di' },</t>
+  </si>
+  <si>
+    <t>{ src: 'sound-moe_l2_learn_didi.mp3', id: 'sound-moe_l2_learn_didi' },</t>
+  </si>
+  <si>
+    <t>{ src: 'sound-moe_l2_learn_du.mp3', id: 'sound-moe_l2_learn_du' },</t>
+  </si>
+  <si>
+    <t>{ src: 'sound-moe_l2_learn_du2.mp3', id: 'sound-moe_l2_learn_du2' },</t>
+  </si>
+  <si>
+    <t>{ src: 'sound-moe_l2_learn_f.mp3', id: 'sound-moe_l2_learn_f' },</t>
+  </si>
+  <si>
+    <t>{ src: 'sound-moe_l2_learn_fa.mp3', id: 'sound-moe_l2_learn_fa' },</t>
+  </si>
+  <si>
+    <t>{ src: 'sound-moe_l2_learn_fo.mp3', id: 'sound-moe_l2_learn_fo' },</t>
+  </si>
+  <si>
+    <t>{ src: 'sound-moe_l2_learn_fu.mp3', id: 'sound-moe_l2_learn_fu' },</t>
+  </si>
+  <si>
+    <t>{ src: 'sound-moe_l2_learn_fu2.mp3', id: 'sound-moe_l2_learn_fu2' },</t>
+  </si>
+  <si>
+    <t>{ src: 'sound-moe_l2_learn_l.mp3', id: 'sound-moe_l2_learn_l' },</t>
+  </si>
+  <si>
+    <t>{ src: 'sound-moe_l2_learn_la.mp3', id: 'sound-moe_l2_learn_la' },</t>
+  </si>
+  <si>
+    <t>{ src: 'sound-moe_l2_learn_la1.mp3', id: 'sound-moe_l2_learn_la1' },</t>
+  </si>
+  <si>
+    <t>{ src: 'sound-moe_l2_learn_le.mp3', id: 'sound-moe_l2_learn_le' },</t>
+  </si>
+  <si>
+    <t>{ src: 'sound-moe_l2_learn_li.mp3', id: 'sound-moe_l2_learn_li' },</t>
+  </si>
+  <si>
+    <t>{ src: 'sound-moe_l2_learn_liwu.mp3', id: 'sound-moe_l2_learn_liwu' },</t>
+  </si>
+  <si>
+    <t>{ src: 'sound-moe_l2_learn_lu.mp3', id: 'sound-moe_l2_learn_lu' },</t>
+  </si>
+  <si>
+    <t>{ src: 'sound-moe_l2_learn_lv.mp3', id: 'sound-moe_l2_learn_lv' },</t>
+  </si>
+  <si>
+    <t>{ src: 'sound-moe_l2_learn_m.mp3', id: 'sound-moe_l2_learn_m' },</t>
+  </si>
+  <si>
+    <t>{ src: 'sound-moe_l2_learn_ma.mp3', id: 'sound-moe_l2_learn_ma' },</t>
+  </si>
+  <si>
+    <t>{ src: 'sound-moe_l2_learn_malu.mp3', id: 'sound-moe_l2_learn_malu' },</t>
+  </si>
+  <si>
+    <t>{ src: 'sound-moe_l2_learn_mama.mp3', id: 'sound-moe_l2_learn_mama' },</t>
+  </si>
+  <si>
+    <t>{ src: 'sound-moe_l2_learn_me.mp3', id: 'sound-moe_l2_learn_me' },</t>
+  </si>
+  <si>
+    <t>{ src: 'sound-moe_l2_learn_mi.mp3', id: 'sound-moe_l2_learn_mi' },</t>
+  </si>
+  <si>
+    <t>{ src: 'sound-moe_l2_learn_mo.mp3', id: 'sound-moe_l2_learn_mo' },</t>
+  </si>
+  <si>
+    <t>{ src: 'sound-moe_l2_learn_mu.mp3', id: 'sound-moe_l2_learn_mu' },</t>
+  </si>
+  <si>
+    <t>{ src: 'sound-moe_l2_learn_muma.mp3', id: 'sound-moe_l2_learn_muma' },</t>
+  </si>
+  <si>
+    <t>{ src: 'sound-moe_l2_learn_mv.mp3', id: 'sound-moe_l2_learn_mv' },</t>
+  </si>
+  <si>
+    <t>{ src: 'sound-moe_l2_learn_mü.mp3', id: 'sound-moe_l2_learn_mü' },</t>
+  </si>
+  <si>
+    <t>{ src: 'sound-moe_l2_learn_mü3.mp3', id: 'sound-moe_l2_learn_mü3' },</t>
+  </si>
+  <si>
+    <t>{ src: 'sound-moe_l2_learn_n.mp3', id: 'sound-moe_l2_learn_n' },</t>
+  </si>
+  <si>
+    <t>{ src: 'sound-moe_l2_learn_na.mp3', id: 'sound-moe_l2_learn_na' },</t>
+  </si>
+  <si>
+    <t>{ src: 'sound-moe_l2_learn_na2.mp3', id: 'sound-moe_l2_learn_na2' },</t>
+  </si>
+  <si>
+    <t>{ src: 'sound-moe_l2_learn_ne.mp3', id: 'sound-moe_l2_learn_ne' },</t>
+  </si>
+  <si>
+    <t>{ src: 'sound-moe_l2_learn_ni.mp3', id: 'sound-moe_l2_learn_ni' },</t>
+  </si>
+  <si>
+    <t>{ src: 'sound-moe_l2_learn_nu.mp3', id: 'sound-moe_l2_learn_nu' },</t>
+  </si>
+  <si>
+    <t>{ src: 'sound-moe_l2_learn_nv3.mp3', id: 'sound-moe_l2_learn_nv3' },</t>
+  </si>
+  <si>
+    <t>{ src: 'sound-moe_l2_learn_p.mp3', id: 'sound-moe_l2_learn_p' },</t>
+  </si>
+  <si>
+    <t>{ src: 'sound-moe_l2_learn_pa.mp3', id: 'sound-moe_l2_learn_pa' },</t>
+  </si>
+  <si>
+    <t>{ src: 'sound-moe_l2_learn_pa2.mp3', id: 'sound-moe_l2_learn_pa2' },</t>
+  </si>
+  <si>
+    <t>{ src: 'sound-moe_l2_learn_pa4.mp3', id: 'sound-moe_l2_learn_pa4' },</t>
+  </si>
+  <si>
+    <t>{ src: 'sound-moe_l2_learn_pi.mp3', id: 'sound-moe_l2_learn_pi' },</t>
+  </si>
+  <si>
+    <t>{ src: 'sound-moe_l2_learn_po.mp3', id: 'sound-moe_l2_learn_po' },</t>
+  </si>
+  <si>
+    <t>{ src: 'sound-moe_l2_learn_pu.mp3', id: 'sound-moe_l2_learn_pu' },</t>
+  </si>
+  <si>
+    <t>{ src: 'sound-moe_l2_learn_t.mp3', id: 'sound-moe_l2_learn_t' },</t>
+  </si>
+  <si>
+    <t>{ src: 'sound-moe_l2_learn_ta.mp3', id: 'sound-moe_l2_learn_ta' },</t>
+  </si>
+  <si>
+    <t>{ src: 'sound-moe_l2_learn_te.mp3', id: 'sound-moe_l2_learn_te' },</t>
+  </si>
+  <si>
+    <t>{ src: 'sound-moe_l2_learn_ti.mp3', id: 'sound-moe_l2_learn_ti' },</t>
+  </si>
+  <si>
+    <t>{ src: 'sound-moe_l2_learn_ti1.mp3', id: 'sound-moe_l2_learn_ti1' },</t>
+  </si>
+  <si>
+    <t>{ src: 'sound-moe_l2_learn_tu.mp3', id: 'sound-moe_l2_learn_tu' },</t>
+  </si>
+  <si>
+    <t>{ src: 'sound-moe_l2_learn_tu3.mp3', id: 'sound-moe_l2_learn_tu3' },</t>
+  </si>
+  <si>
+    <t>{ src: 'sound-moe_l2_learn_yifu.mp3', id: 'sound-moe_l2_learn_yifu' }];</t>
   </si>
 </sst>
 </file>
@@ -447,10 +549,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M32"/>
+  <dimension ref="A1:M66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B2" workbookViewId="0">
-      <selection activeCell="D32" sqref="D3:D32"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3:D67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -475,15 +577,15 @@
       </c>
       <c r="C3" t="str">
         <f>MID(A3,9,B3-10)</f>
-        <v>sound-moe_l1_learn_a.mp3</v>
+        <v>sound-moe_l2_learn_b.mp3</v>
       </c>
       <c r="D3" t="str">
         <f>"$u += """&amp;$A$1&amp;C3&amp;""""</f>
-        <v>$u += "https://www.mtl.moe.edu.sg/xuele/PYCB/Files/sound-moe_l1_learn_a.mp3"</v>
+        <v>$u += "https://www.mtl.moe.edu.sg/xuele/PYCB/Files/sound-moe_l2_learn_b.mp3"</v>
       </c>
       <c r="M3" t="str">
         <f>""""&amp;C3&amp;""","</f>
-        <v>"sound-moe_l1_learn_a.mp3",</v>
+        <v>"sound-moe_l2_learn_b.mp3",</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
@@ -492,19 +594,19 @@
       </c>
       <c r="B4">
         <f t="shared" ref="B4:B32" si="0">FIND(",",A4)</f>
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C4" t="str">
         <f t="shared" ref="C4:C32" si="1">MID(A4,9,B4-10)</f>
-        <v>sound-moe_l1_learn_ayi.mp3</v>
+        <v>sound-moe_l2_learn_ba.mp3</v>
       </c>
       <c r="D4" t="str">
         <f t="shared" ref="D4:D32" si="2">"$u += """&amp;$A$1&amp;C4&amp;""""</f>
-        <v>$u += "https://www.mtl.moe.edu.sg/xuele/PYCB/Files/sound-moe_l1_learn_ayi.mp3"</v>
+        <v>$u += "https://www.mtl.moe.edu.sg/xuele/PYCB/Files/sound-moe_l2_learn_ba.mp3"</v>
       </c>
       <c r="M4" t="str">
         <f t="shared" ref="M4:M32" si="3">""""&amp;C4&amp;""","</f>
-        <v>"sound-moe_l1_learn_ayi.mp3",</v>
+        <v>"sound-moe_l2_learn_ba.mp3",</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
@@ -513,19 +615,19 @@
       </c>
       <c r="B5">
         <f t="shared" si="0"/>
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C5" t="str">
         <f t="shared" si="1"/>
-        <v>sound-moe_l1_learn_e.mp3</v>
+        <v>sound-moe_l2_learn_ba1.mp3</v>
       </c>
       <c r="D5" t="str">
         <f t="shared" si="2"/>
-        <v>$u += "https://www.mtl.moe.edu.sg/xuele/PYCB/Files/sound-moe_l1_learn_e.mp3"</v>
+        <v>$u += "https://www.mtl.moe.edu.sg/xuele/PYCB/Files/sound-moe_l2_learn_ba1.mp3"</v>
       </c>
       <c r="M5" t="str">
         <f t="shared" si="3"/>
-        <v>"sound-moe_l1_learn_e.mp3",</v>
+        <v>"sound-moe_l2_learn_ba1.mp3",</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
@@ -534,19 +636,19 @@
       </c>
       <c r="B6">
         <f t="shared" si="0"/>
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C6" t="str">
         <f t="shared" si="1"/>
-        <v>sound-moe_l1_learn_i.mp3</v>
+        <v>sound-moe_l2_learn_ba2.mp3</v>
       </c>
       <c r="D6" t="str">
         <f t="shared" si="2"/>
-        <v>$u += "https://www.mtl.moe.edu.sg/xuele/PYCB/Files/sound-moe_l1_learn_i.mp3"</v>
+        <v>$u += "https://www.mtl.moe.edu.sg/xuele/PYCB/Files/sound-moe_l2_learn_ba2.mp3"</v>
       </c>
       <c r="M6" t="str">
         <f t="shared" si="3"/>
-        <v>"sound-moe_l1_learn_i.mp3",</v>
+        <v>"sound-moe_l2_learn_ba2.mp3",</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
@@ -555,19 +657,19 @@
       </c>
       <c r="B7">
         <f t="shared" si="0"/>
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C7" t="str">
         <f t="shared" si="1"/>
-        <v>sound-moe_l1_learn_o.mp3</v>
+        <v>sound-moe_l2_learn_baba.mp3</v>
       </c>
       <c r="D7" t="str">
         <f t="shared" si="2"/>
-        <v>$u += "https://www.mtl.moe.edu.sg/xuele/PYCB/Files/sound-moe_l1_learn_o.mp3"</v>
+        <v>$u += "https://www.mtl.moe.edu.sg/xuele/PYCB/Files/sound-moe_l2_learn_baba.mp3"</v>
       </c>
       <c r="M7" t="str">
         <f t="shared" si="3"/>
-        <v>"sound-moe_l1_learn_o.mp3",</v>
+        <v>"sound-moe_l2_learn_baba.mp3",</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
@@ -576,19 +678,19 @@
       </c>
       <c r="B8">
         <f t="shared" si="0"/>
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C8" t="str">
         <f t="shared" si="1"/>
-        <v>sound-moe_l1_learn_u.mp3</v>
+        <v>sound-moe_l2_learn_bi.mp3</v>
       </c>
       <c r="D8" t="str">
         <f t="shared" si="2"/>
-        <v>$u += "https://www.mtl.moe.edu.sg/xuele/PYCB/Files/sound-moe_l1_learn_u.mp3"</v>
+        <v>$u += "https://www.mtl.moe.edu.sg/xuele/PYCB/Files/sound-moe_l2_learn_bi.mp3"</v>
       </c>
       <c r="M8" t="str">
         <f t="shared" si="3"/>
-        <v>"sound-moe_l1_learn_u.mp3",</v>
+        <v>"sound-moe_l2_learn_bi.mp3",</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
@@ -597,19 +699,19 @@
       </c>
       <c r="B9">
         <f t="shared" si="0"/>
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C9" t="str">
         <f t="shared" si="1"/>
-        <v>sound-moe_l1_learn_v.mp3</v>
+        <v>sound-moe_l2_learn_bi3.mp3</v>
       </c>
       <c r="D9" t="str">
         <f t="shared" si="2"/>
-        <v>$u += "https://www.mtl.moe.edu.sg/xuele/PYCB/Files/sound-moe_l1_learn_v.mp3"</v>
+        <v>$u += "https://www.mtl.moe.edu.sg/xuele/PYCB/Files/sound-moe_l2_learn_bi3.mp3"</v>
       </c>
       <c r="M9" t="str">
         <f t="shared" si="3"/>
-        <v>"sound-moe_l1_learn_v.mp3",</v>
+        <v>"sound-moe_l2_learn_bi3.mp3",</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
@@ -618,19 +720,19 @@
       </c>
       <c r="B10">
         <f t="shared" si="0"/>
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C10" t="str">
         <f t="shared" si="1"/>
-        <v>sound-moe_l1_learn_w.mp3</v>
+        <v>sound-moe_l2_learn_bo.mp3</v>
       </c>
       <c r="D10" t="str">
         <f t="shared" si="2"/>
-        <v>$u += "https://www.mtl.moe.edu.sg/xuele/PYCB/Files/sound-moe_l1_learn_w.mp3"</v>
+        <v>$u += "https://www.mtl.moe.edu.sg/xuele/PYCB/Files/sound-moe_l2_learn_bo.mp3"</v>
       </c>
       <c r="M10" t="str">
         <f t="shared" si="3"/>
-        <v>"sound-moe_l1_learn_w.mp3",</v>
+        <v>"sound-moe_l2_learn_bo.mp3",</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
@@ -643,15 +745,15 @@
       </c>
       <c r="C11" t="str">
         <f t="shared" si="1"/>
-        <v>sound-moe_l1_learn_wa.mp3</v>
+        <v>sound-moe_l2_learn_bu.mp3</v>
       </c>
       <c r="D11" t="str">
         <f t="shared" si="2"/>
-        <v>$u += "https://www.mtl.moe.edu.sg/xuele/PYCB/Files/sound-moe_l1_learn_wa.mp3"</v>
+        <v>$u += "https://www.mtl.moe.edu.sg/xuele/PYCB/Files/sound-moe_l2_learn_bu.mp3"</v>
       </c>
       <c r="M11" t="str">
         <f t="shared" si="3"/>
-        <v>"sound-moe_l1_learn_wa.mp3",</v>
+        <v>"sound-moe_l2_learn_bu.mp3",</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
@@ -660,19 +762,19 @@
       </c>
       <c r="B12">
         <f t="shared" si="0"/>
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C12" t="str">
         <f t="shared" si="1"/>
-        <v>sound-moe_l1_learn_wa4.mp3</v>
+        <v>sound-moe_l2_learn_d.mp3</v>
       </c>
       <c r="D12" t="str">
         <f t="shared" si="2"/>
-        <v>$u += "https://www.mtl.moe.edu.sg/xuele/PYCB/Files/sound-moe_l1_learn_wa4.mp3"</v>
+        <v>$u += "https://www.mtl.moe.edu.sg/xuele/PYCB/Files/sound-moe_l2_learn_d.mp3"</v>
       </c>
       <c r="M12" t="str">
         <f t="shared" si="3"/>
-        <v>"sound-moe_l1_learn_wa4.mp3",</v>
+        <v>"sound-moe_l2_learn_d.mp3",</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
@@ -681,19 +783,19 @@
       </c>
       <c r="B13">
         <f t="shared" si="0"/>
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C13" t="str">
         <f t="shared" si="1"/>
-        <v>sound-moe_l1_learn_wawa.mp3</v>
+        <v>sound-moe_l2_learn_da.mp3</v>
       </c>
       <c r="D13" t="str">
         <f t="shared" si="2"/>
-        <v>$u += "https://www.mtl.moe.edu.sg/xuele/PYCB/Files/sound-moe_l1_learn_wawa.mp3"</v>
+        <v>$u += "https://www.mtl.moe.edu.sg/xuele/PYCB/Files/sound-moe_l2_learn_da.mp3"</v>
       </c>
       <c r="M13" t="str">
         <f t="shared" si="3"/>
-        <v>"sound-moe_l1_learn_wawa.mp3",</v>
+        <v>"sound-moe_l2_learn_da.mp3",</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
@@ -702,19 +804,19 @@
       </c>
       <c r="B14">
         <f t="shared" si="0"/>
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C14" t="str">
         <f t="shared" si="1"/>
-        <v>sound-moe_l1_learn_wo.mp3</v>
+        <v>sound-moe_l2_learn_da4.mp3</v>
       </c>
       <c r="D14" t="str">
         <f t="shared" si="2"/>
-        <v>$u += "https://www.mtl.moe.edu.sg/xuele/PYCB/Files/sound-moe_l1_learn_wo.mp3"</v>
+        <v>$u += "https://www.mtl.moe.edu.sg/xuele/PYCB/Files/sound-moe_l2_learn_da4.mp3"</v>
       </c>
       <c r="M14" t="str">
         <f t="shared" si="3"/>
-        <v>"sound-moe_l1_learn_wo.mp3",</v>
+        <v>"sound-moe_l2_learn_da4.mp3",</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
@@ -723,19 +825,19 @@
       </c>
       <c r="B15">
         <f t="shared" si="0"/>
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C15" t="str">
         <f t="shared" si="1"/>
-        <v>sound-moe_l1_learn_wo1.mp3</v>
+        <v>sound-moe_l2_learn_de.mp3</v>
       </c>
       <c r="D15" t="str">
         <f t="shared" si="2"/>
-        <v>$u += "https://www.mtl.moe.edu.sg/xuele/PYCB/Files/sound-moe_l1_learn_wo1.mp3"</v>
+        <v>$u += "https://www.mtl.moe.edu.sg/xuele/PYCB/Files/sound-moe_l2_learn_de.mp3"</v>
       </c>
       <c r="M15" t="str">
         <f t="shared" si="3"/>
-        <v>"sound-moe_l1_learn_wo1.mp3",</v>
+        <v>"sound-moe_l2_learn_de.mp3",</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
@@ -744,19 +846,19 @@
       </c>
       <c r="B16">
         <f t="shared" si="0"/>
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C16" t="str">
         <f t="shared" si="1"/>
-        <v>sound-moe_l1_learn_wo3.mp3</v>
+        <v>sound-moe_l2_learn_di.mp3</v>
       </c>
       <c r="D16" t="str">
         <f t="shared" si="2"/>
-        <v>$u += "https://www.mtl.moe.edu.sg/xuele/PYCB/Files/sound-moe_l1_learn_wo3.mp3"</v>
+        <v>$u += "https://www.mtl.moe.edu.sg/xuele/PYCB/Files/sound-moe_l2_learn_di.mp3"</v>
       </c>
       <c r="M16" t="str">
         <f t="shared" si="3"/>
-        <v>"sound-moe_l1_learn_wo3.mp3",</v>
+        <v>"sound-moe_l2_learn_di.mp3",</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
@@ -765,19 +867,19 @@
       </c>
       <c r="B17">
         <f t="shared" si="0"/>
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C17" t="str">
         <f t="shared" si="1"/>
-        <v>sound-moe_l1_learn_wu.mp3</v>
+        <v>sound-moe_l2_learn_didi.mp3</v>
       </c>
       <c r="D17" t="str">
         <f t="shared" si="2"/>
-        <v>$u += "https://www.mtl.moe.edu.sg/xuele/PYCB/Files/sound-moe_l1_learn_wu.mp3"</v>
+        <v>$u += "https://www.mtl.moe.edu.sg/xuele/PYCB/Files/sound-moe_l2_learn_didi.mp3"</v>
       </c>
       <c r="M17" t="str">
         <f t="shared" si="3"/>
-        <v>"sound-moe_l1_learn_wu.mp3",</v>
+        <v>"sound-moe_l2_learn_didi.mp3",</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
@@ -786,19 +888,19 @@
       </c>
       <c r="B18">
         <f t="shared" si="0"/>
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C18" t="str">
         <f t="shared" si="1"/>
-        <v>sound-moe_l1_learn_wu1.mp3</v>
+        <v>sound-moe_l2_learn_du.mp3</v>
       </c>
       <c r="D18" t="str">
         <f t="shared" si="2"/>
-        <v>$u += "https://www.mtl.moe.edu.sg/xuele/PYCB/Files/sound-moe_l1_learn_wu1.mp3"</v>
+        <v>$u += "https://www.mtl.moe.edu.sg/xuele/PYCB/Files/sound-moe_l2_learn_du.mp3"</v>
       </c>
       <c r="M18" t="str">
         <f t="shared" si="3"/>
-        <v>"sound-moe_l1_learn_wu1.mp3",</v>
+        <v>"sound-moe_l2_learn_du.mp3",</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
@@ -811,15 +913,15 @@
       </c>
       <c r="C19" t="str">
         <f t="shared" si="1"/>
-        <v>sound-moe_l1_learn_wu3.mp3</v>
+        <v>sound-moe_l2_learn_du2.mp3</v>
       </c>
       <c r="D19" t="str">
         <f t="shared" si="2"/>
-        <v>$u += "https://www.mtl.moe.edu.sg/xuele/PYCB/Files/sound-moe_l1_learn_wu3.mp3"</v>
+        <v>$u += "https://www.mtl.moe.edu.sg/xuele/PYCB/Files/sound-moe_l2_learn_du2.mp3"</v>
       </c>
       <c r="M19" t="str">
         <f t="shared" si="3"/>
-        <v>"sound-moe_l1_learn_wu3.mp3",</v>
+        <v>"sound-moe_l2_learn_du2.mp3",</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
@@ -828,19 +930,19 @@
       </c>
       <c r="B20">
         <f t="shared" si="0"/>
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C20" t="str">
         <f t="shared" si="1"/>
-        <v>sound-moe_l1_learn_wuya.mp3</v>
+        <v>sound-moe_l2_learn_f.mp3</v>
       </c>
       <c r="D20" t="str">
         <f t="shared" si="2"/>
-        <v>$u += "https://www.mtl.moe.edu.sg/xuele/PYCB/Files/sound-moe_l1_learn_wuya.mp3"</v>
+        <v>$u += "https://www.mtl.moe.edu.sg/xuele/PYCB/Files/sound-moe_l2_learn_f.mp3"</v>
       </c>
       <c r="M20" t="str">
         <f t="shared" si="3"/>
-        <v>"sound-moe_l1_learn_wuya.mp3",</v>
+        <v>"sound-moe_l2_learn_f.mp3",</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
@@ -849,19 +951,19 @@
       </c>
       <c r="B21">
         <f t="shared" si="0"/>
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C21" t="str">
         <f t="shared" si="1"/>
-        <v>sound-moe_l1_learn_y.mp3</v>
+        <v>sound-moe_l2_learn_fa.mp3</v>
       </c>
       <c r="D21" t="str">
         <f t="shared" si="2"/>
-        <v>$u += "https://www.mtl.moe.edu.sg/xuele/PYCB/Files/sound-moe_l1_learn_y.mp3"</v>
+        <v>$u += "https://www.mtl.moe.edu.sg/xuele/PYCB/Files/sound-moe_l2_learn_fa.mp3"</v>
       </c>
       <c r="M21" t="str">
         <f t="shared" si="3"/>
-        <v>"sound-moe_l1_learn_y.mp3",</v>
+        <v>"sound-moe_l2_learn_fa.mp3",</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
@@ -874,15 +976,15 @@
       </c>
       <c r="C22" t="str">
         <f t="shared" si="1"/>
-        <v>sound-moe_l1_learn_ya.mp3</v>
+        <v>sound-moe_l2_learn_fo.mp3</v>
       </c>
       <c r="D22" t="str">
         <f t="shared" si="2"/>
-        <v>$u += "https://www.mtl.moe.edu.sg/xuele/PYCB/Files/sound-moe_l1_learn_ya.mp3"</v>
+        <v>$u += "https://www.mtl.moe.edu.sg/xuele/PYCB/Files/sound-moe_l2_learn_fo.mp3"</v>
       </c>
       <c r="M22" t="str">
         <f t="shared" si="3"/>
-        <v>"sound-moe_l1_learn_ya.mp3",</v>
+        <v>"sound-moe_l2_learn_fo.mp3",</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
@@ -891,19 +993,19 @@
       </c>
       <c r="B23">
         <f t="shared" si="0"/>
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C23" t="str">
         <f t="shared" si="1"/>
-        <v>sound-moe_l1_learn_ya1.mp3</v>
+        <v>sound-moe_l2_learn_fu.mp3</v>
       </c>
       <c r="D23" t="str">
         <f t="shared" si="2"/>
-        <v>$u += "https://www.mtl.moe.edu.sg/xuele/PYCB/Files/sound-moe_l1_learn_ya1.mp3"</v>
+        <v>$u += "https://www.mtl.moe.edu.sg/xuele/PYCB/Files/sound-moe_l2_learn_fu.mp3"</v>
       </c>
       <c r="M23" t="str">
         <f t="shared" si="3"/>
-        <v>"sound-moe_l1_learn_ya1.mp3",</v>
+        <v>"sound-moe_l2_learn_fu.mp3",</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
@@ -916,15 +1018,15 @@
       </c>
       <c r="C24" t="str">
         <f t="shared" si="1"/>
-        <v>sound-moe_l1_learn_ya2.mp3</v>
+        <v>sound-moe_l2_learn_fu2.mp3</v>
       </c>
       <c r="D24" t="str">
         <f t="shared" si="2"/>
-        <v>$u += "https://www.mtl.moe.edu.sg/xuele/PYCB/Files/sound-moe_l1_learn_ya2.mp3"</v>
+        <v>$u += "https://www.mtl.moe.edu.sg/xuele/PYCB/Files/sound-moe_l2_learn_fu2.mp3"</v>
       </c>
       <c r="M24" t="str">
         <f t="shared" si="3"/>
-        <v>"sound-moe_l1_learn_ya2.mp3",</v>
+        <v>"sound-moe_l2_learn_fu2.mp3",</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
@@ -933,19 +1035,19 @@
       </c>
       <c r="B25">
         <f t="shared" si="0"/>
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C25" t="str">
         <f t="shared" si="1"/>
-        <v>sound-moe_l1_learn_ya3.mp3</v>
+        <v>sound-moe_l2_learn_l.mp3</v>
       </c>
       <c r="D25" t="str">
         <f t="shared" si="2"/>
-        <v>$u += "https://www.mtl.moe.edu.sg/xuele/PYCB/Files/sound-moe_l1_learn_ya3.mp3"</v>
+        <v>$u += "https://www.mtl.moe.edu.sg/xuele/PYCB/Files/sound-moe_l2_learn_l.mp3"</v>
       </c>
       <c r="M25" t="str">
         <f t="shared" si="3"/>
-        <v>"sound-moe_l1_learn_ya3.mp3",</v>
+        <v>"sound-moe_l2_learn_l.mp3",</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.3">
@@ -958,15 +1060,15 @@
       </c>
       <c r="C26" t="str">
         <f t="shared" si="1"/>
-        <v>sound-moe_l1_learn_yi.mp3</v>
+        <v>sound-moe_l2_learn_la.mp3</v>
       </c>
       <c r="D26" t="str">
         <f t="shared" si="2"/>
-        <v>$u += "https://www.mtl.moe.edu.sg/xuele/PYCB/Files/sound-moe_l1_learn_yi.mp3"</v>
+        <v>$u += "https://www.mtl.moe.edu.sg/xuele/PYCB/Files/sound-moe_l2_learn_la.mp3"</v>
       </c>
       <c r="M26" t="str">
         <f t="shared" si="3"/>
-        <v>"sound-moe_l1_learn_yi.mp3",</v>
+        <v>"sound-moe_l2_learn_la.mp3",</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.3">
@@ -979,15 +1081,15 @@
       </c>
       <c r="C27" t="str">
         <f t="shared" si="1"/>
-        <v>sound-moe_l1_learn_yi1.mp3</v>
+        <v>sound-moe_l2_learn_la1.mp3</v>
       </c>
       <c r="D27" t="str">
         <f t="shared" si="2"/>
-        <v>$u += "https://www.mtl.moe.edu.sg/xuele/PYCB/Files/sound-moe_l1_learn_yi1.mp3"</v>
+        <v>$u += "https://www.mtl.moe.edu.sg/xuele/PYCB/Files/sound-moe_l2_learn_la1.mp3"</v>
       </c>
       <c r="M27" t="str">
         <f t="shared" si="3"/>
-        <v>"sound-moe_l1_learn_yi1.mp3",</v>
+        <v>"sound-moe_l2_learn_la1.mp3",</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.3">
@@ -996,19 +1098,19 @@
       </c>
       <c r="B28">
         <f t="shared" si="0"/>
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C28" t="str">
         <f t="shared" si="1"/>
-        <v>sound-moe_l1_learn_yi3.mp3</v>
+        <v>sound-moe_l2_learn_le.mp3</v>
       </c>
       <c r="D28" t="str">
         <f t="shared" si="2"/>
-        <v>$u += "https://www.mtl.moe.edu.sg/xuele/PYCB/Files/sound-moe_l1_learn_yi3.mp3"</v>
+        <v>$u += "https://www.mtl.moe.edu.sg/xuele/PYCB/Files/sound-moe_l2_learn_le.mp3"</v>
       </c>
       <c r="M28" t="str">
         <f t="shared" si="3"/>
-        <v>"sound-moe_l1_learn_yi3.mp3",</v>
+        <v>"sound-moe_l2_learn_le.mp3",</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.3">
@@ -1021,15 +1123,15 @@
       </c>
       <c r="C29" t="str">
         <f t="shared" si="1"/>
-        <v>sound-moe_l1_learn_yu.mp3</v>
+        <v>sound-moe_l2_learn_li.mp3</v>
       </c>
       <c r="D29" t="str">
         <f t="shared" si="2"/>
-        <v>$u += "https://www.mtl.moe.edu.sg/xuele/PYCB/Files/sound-moe_l1_learn_yu.mp3"</v>
+        <v>$u += "https://www.mtl.moe.edu.sg/xuele/PYCB/Files/sound-moe_l2_learn_li.mp3"</v>
       </c>
       <c r="M29" t="str">
         <f t="shared" si="3"/>
-        <v>"sound-moe_l1_learn_yu.mp3",</v>
+        <v>"sound-moe_l2_learn_li.mp3",</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.3">
@@ -1038,19 +1140,19 @@
       </c>
       <c r="B30">
         <f t="shared" si="0"/>
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C30" t="str">
         <f t="shared" si="1"/>
-        <v>sound-moe_l1_learn_yu2.mp3</v>
+        <v>sound-moe_l2_learn_liwu.mp3</v>
       </c>
       <c r="D30" t="str">
         <f t="shared" si="2"/>
-        <v>$u += "https://www.mtl.moe.edu.sg/xuele/PYCB/Files/sound-moe_l1_learn_yu2.mp3"</v>
+        <v>$u += "https://www.mtl.moe.edu.sg/xuele/PYCB/Files/sound-moe_l2_learn_liwu.mp3"</v>
       </c>
       <c r="M30" t="str">
         <f t="shared" si="3"/>
-        <v>"sound-moe_l1_learn_yu2.mp3",</v>
+        <v>"sound-moe_l2_learn_liwu.mp3",</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.3">
@@ -1059,19 +1161,19 @@
       </c>
       <c r="B31">
         <f t="shared" si="0"/>
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C31" t="str">
         <f t="shared" si="1"/>
-        <v>sound-moe_l1_learn_yu3.mp3</v>
+        <v>sound-moe_l2_learn_lu.mp3</v>
       </c>
       <c r="D31" t="str">
         <f t="shared" si="2"/>
-        <v>$u += "https://www.mtl.moe.edu.sg/xuele/PYCB/Files/sound-moe_l1_learn_yu3.mp3"</v>
+        <v>$u += "https://www.mtl.moe.edu.sg/xuele/PYCB/Files/sound-moe_l2_learn_lu.mp3"</v>
       </c>
       <c r="M31" t="str">
         <f t="shared" si="3"/>
-        <v>"sound-moe_l1_learn_yu3.mp3",</v>
+        <v>"sound-moe_l2_learn_lu.mp3",</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.3">
@@ -1080,19 +1182,597 @@
       </c>
       <c r="B32">
         <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="C32" t="str">
+        <f t="shared" si="1"/>
+        <v>sound-moe_l2_learn_lv.mp3</v>
+      </c>
+      <c r="D32" t="str">
+        <f t="shared" si="2"/>
+        <v>$u += "https://www.mtl.moe.edu.sg/xuele/PYCB/Files/sound-moe_l2_learn_lv.mp3"</v>
+      </c>
+      <c r="M32" t="str">
+        <f t="shared" si="3"/>
+        <v>"sound-moe_l2_learn_lv.mp3",</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B33">
+        <f t="shared" ref="B33:B66" si="4">FIND(",",A33)</f>
+        <v>34</v>
+      </c>
+      <c r="C33" t="str">
+        <f t="shared" ref="C33:C66" si="5">MID(A33,9,B33-10)</f>
+        <v>sound-moe_l2_learn_m.mp3</v>
+      </c>
+      <c r="D33" t="str">
+        <f t="shared" ref="D33:D66" si="6">"$u += """&amp;$A$1&amp;C33&amp;""""</f>
+        <v>$u += "https://www.mtl.moe.edu.sg/xuele/PYCB/Files/sound-moe_l2_learn_m.mp3"</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B34">
+        <f t="shared" si="4"/>
+        <v>35</v>
+      </c>
+      <c r="C34" t="str">
+        <f t="shared" si="5"/>
+        <v>sound-moe_l2_learn_ma.mp3</v>
+      </c>
+      <c r="D34" t="str">
+        <f t="shared" si="6"/>
+        <v>$u += "https://www.mtl.moe.edu.sg/xuele/PYCB/Files/sound-moe_l2_learn_ma.mp3"</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B35">
+        <f t="shared" si="4"/>
         <v>37</v>
       </c>
-      <c r="C32" t="str">
-        <f t="shared" si="1"/>
-        <v>sound-moe_l1_learn_yuyi.mp3</v>
-      </c>
-      <c r="D32" t="str">
-        <f t="shared" si="2"/>
-        <v>$u += "https://www.mtl.moe.edu.sg/xuele/PYCB/Files/sound-moe_l1_learn_yuyi.mp3"</v>
-      </c>
-      <c r="M32" t="str">
-        <f t="shared" si="3"/>
-        <v>"sound-moe_l1_learn_yuyi.mp3",</v>
+      <c r="C35" t="str">
+        <f t="shared" si="5"/>
+        <v>sound-moe_l2_learn_malu.mp3</v>
+      </c>
+      <c r="D35" t="str">
+        <f t="shared" si="6"/>
+        <v>$u += "https://www.mtl.moe.edu.sg/xuele/PYCB/Files/sound-moe_l2_learn_malu.mp3"</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B36">
+        <f t="shared" si="4"/>
+        <v>37</v>
+      </c>
+      <c r="C36" t="str">
+        <f t="shared" si="5"/>
+        <v>sound-moe_l2_learn_mama.mp3</v>
+      </c>
+      <c r="D36" t="str">
+        <f t="shared" si="6"/>
+        <v>$u += "https://www.mtl.moe.edu.sg/xuele/PYCB/Files/sound-moe_l2_learn_mama.mp3"</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B37">
+        <f t="shared" si="4"/>
+        <v>35</v>
+      </c>
+      <c r="C37" t="str">
+        <f t="shared" si="5"/>
+        <v>sound-moe_l2_learn_me.mp3</v>
+      </c>
+      <c r="D37" t="str">
+        <f t="shared" si="6"/>
+        <v>$u += "https://www.mtl.moe.edu.sg/xuele/PYCB/Files/sound-moe_l2_learn_me.mp3"</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B38">
+        <f t="shared" si="4"/>
+        <v>35</v>
+      </c>
+      <c r="C38" t="str">
+        <f t="shared" si="5"/>
+        <v>sound-moe_l2_learn_mi.mp3</v>
+      </c>
+      <c r="D38" t="str">
+        <f t="shared" si="6"/>
+        <v>$u += "https://www.mtl.moe.edu.sg/xuele/PYCB/Files/sound-moe_l2_learn_mi.mp3"</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B39">
+        <f t="shared" si="4"/>
+        <v>35</v>
+      </c>
+      <c r="C39" t="str">
+        <f t="shared" si="5"/>
+        <v>sound-moe_l2_learn_mo.mp3</v>
+      </c>
+      <c r="D39" t="str">
+        <f t="shared" si="6"/>
+        <v>$u += "https://www.mtl.moe.edu.sg/xuele/PYCB/Files/sound-moe_l2_learn_mo.mp3"</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B40">
+        <f t="shared" si="4"/>
+        <v>35</v>
+      </c>
+      <c r="C40" t="str">
+        <f t="shared" si="5"/>
+        <v>sound-moe_l2_learn_mu.mp3</v>
+      </c>
+      <c r="D40" t="str">
+        <f t="shared" si="6"/>
+        <v>$u += "https://www.mtl.moe.edu.sg/xuele/PYCB/Files/sound-moe_l2_learn_mu.mp3"</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B41">
+        <f t="shared" si="4"/>
+        <v>37</v>
+      </c>
+      <c r="C41" t="str">
+        <f t="shared" si="5"/>
+        <v>sound-moe_l2_learn_muma.mp3</v>
+      </c>
+      <c r="D41" t="str">
+        <f t="shared" si="6"/>
+        <v>$u += "https://www.mtl.moe.edu.sg/xuele/PYCB/Files/sound-moe_l2_learn_muma.mp3"</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B42">
+        <f t="shared" si="4"/>
+        <v>35</v>
+      </c>
+      <c r="C42" t="str">
+        <f t="shared" si="5"/>
+        <v>sound-moe_l2_learn_mv.mp3</v>
+      </c>
+      <c r="D42" t="str">
+        <f t="shared" si="6"/>
+        <v>$u += "https://www.mtl.moe.edu.sg/xuele/PYCB/Files/sound-moe_l2_learn_mv.mp3"</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B43">
+        <f t="shared" si="4"/>
+        <v>35</v>
+      </c>
+      <c r="C43" t="str">
+        <f t="shared" si="5"/>
+        <v>sound-moe_l2_learn_mü.mp3</v>
+      </c>
+      <c r="D43" t="str">
+        <f t="shared" si="6"/>
+        <v>$u += "https://www.mtl.moe.edu.sg/xuele/PYCB/Files/sound-moe_l2_learn_mü.mp3"</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B44">
+        <f t="shared" si="4"/>
+        <v>36</v>
+      </c>
+      <c r="C44" t="str">
+        <f t="shared" si="5"/>
+        <v>sound-moe_l2_learn_mü3.mp3</v>
+      </c>
+      <c r="D44" t="str">
+        <f t="shared" si="6"/>
+        <v>$u += "https://www.mtl.moe.edu.sg/xuele/PYCB/Files/sound-moe_l2_learn_mü3.mp3"</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B45">
+        <f t="shared" si="4"/>
+        <v>34</v>
+      </c>
+      <c r="C45" t="str">
+        <f t="shared" si="5"/>
+        <v>sound-moe_l2_learn_n.mp3</v>
+      </c>
+      <c r="D45" t="str">
+        <f t="shared" si="6"/>
+        <v>$u += "https://www.mtl.moe.edu.sg/xuele/PYCB/Files/sound-moe_l2_learn_n.mp3"</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B46">
+        <f t="shared" si="4"/>
+        <v>35</v>
+      </c>
+      <c r="C46" t="str">
+        <f t="shared" si="5"/>
+        <v>sound-moe_l2_learn_na.mp3</v>
+      </c>
+      <c r="D46" t="str">
+        <f t="shared" si="6"/>
+        <v>$u += "https://www.mtl.moe.edu.sg/xuele/PYCB/Files/sound-moe_l2_learn_na.mp3"</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B47">
+        <f t="shared" si="4"/>
+        <v>36</v>
+      </c>
+      <c r="C47" t="str">
+        <f t="shared" si="5"/>
+        <v>sound-moe_l2_learn_na2.mp3</v>
+      </c>
+      <c r="D47" t="str">
+        <f t="shared" si="6"/>
+        <v>$u += "https://www.mtl.moe.edu.sg/xuele/PYCB/Files/sound-moe_l2_learn_na2.mp3"</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A48" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B48">
+        <f t="shared" si="4"/>
+        <v>35</v>
+      </c>
+      <c r="C48" t="str">
+        <f t="shared" si="5"/>
+        <v>sound-moe_l2_learn_ne.mp3</v>
+      </c>
+      <c r="D48" t="str">
+        <f t="shared" si="6"/>
+        <v>$u += "https://www.mtl.moe.edu.sg/xuele/PYCB/Files/sound-moe_l2_learn_ne.mp3"</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A49" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B49">
+        <f t="shared" si="4"/>
+        <v>35</v>
+      </c>
+      <c r="C49" t="str">
+        <f t="shared" si="5"/>
+        <v>sound-moe_l2_learn_ni.mp3</v>
+      </c>
+      <c r="D49" t="str">
+        <f t="shared" si="6"/>
+        <v>$u += "https://www.mtl.moe.edu.sg/xuele/PYCB/Files/sound-moe_l2_learn_ni.mp3"</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A50" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B50">
+        <f t="shared" si="4"/>
+        <v>35</v>
+      </c>
+      <c r="C50" t="str">
+        <f t="shared" si="5"/>
+        <v>sound-moe_l2_learn_nu.mp3</v>
+      </c>
+      <c r="D50" t="str">
+        <f t="shared" si="6"/>
+        <v>$u += "https://www.mtl.moe.edu.sg/xuele/PYCB/Files/sound-moe_l2_learn_nu.mp3"</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A51" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B51">
+        <f t="shared" si="4"/>
+        <v>36</v>
+      </c>
+      <c r="C51" t="str">
+        <f t="shared" si="5"/>
+        <v>sound-moe_l2_learn_nv3.mp3</v>
+      </c>
+      <c r="D51" t="str">
+        <f t="shared" si="6"/>
+        <v>$u += "https://www.mtl.moe.edu.sg/xuele/PYCB/Files/sound-moe_l2_learn_nv3.mp3"</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A52" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B52">
+        <f t="shared" si="4"/>
+        <v>34</v>
+      </c>
+      <c r="C52" t="str">
+        <f t="shared" si="5"/>
+        <v>sound-moe_l2_learn_p.mp3</v>
+      </c>
+      <c r="D52" t="str">
+        <f t="shared" si="6"/>
+        <v>$u += "https://www.mtl.moe.edu.sg/xuele/PYCB/Files/sound-moe_l2_learn_p.mp3"</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A53" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B53">
+        <f t="shared" si="4"/>
+        <v>35</v>
+      </c>
+      <c r="C53" t="str">
+        <f t="shared" si="5"/>
+        <v>sound-moe_l2_learn_pa.mp3</v>
+      </c>
+      <c r="D53" t="str">
+        <f t="shared" si="6"/>
+        <v>$u += "https://www.mtl.moe.edu.sg/xuele/PYCB/Files/sound-moe_l2_learn_pa.mp3"</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A54" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B54">
+        <f t="shared" si="4"/>
+        <v>36</v>
+      </c>
+      <c r="C54" t="str">
+        <f t="shared" si="5"/>
+        <v>sound-moe_l2_learn_pa2.mp3</v>
+      </c>
+      <c r="D54" t="str">
+        <f t="shared" si="6"/>
+        <v>$u += "https://www.mtl.moe.edu.sg/xuele/PYCB/Files/sound-moe_l2_learn_pa2.mp3"</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A55" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B55">
+        <f t="shared" si="4"/>
+        <v>36</v>
+      </c>
+      <c r="C55" t="str">
+        <f t="shared" si="5"/>
+        <v>sound-moe_l2_learn_pa4.mp3</v>
+      </c>
+      <c r="D55" t="str">
+        <f t="shared" si="6"/>
+        <v>$u += "https://www.mtl.moe.edu.sg/xuele/PYCB/Files/sound-moe_l2_learn_pa4.mp3"</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A56" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B56">
+        <f t="shared" si="4"/>
+        <v>35</v>
+      </c>
+      <c r="C56" t="str">
+        <f t="shared" si="5"/>
+        <v>sound-moe_l2_learn_pi.mp3</v>
+      </c>
+      <c r="D56" t="str">
+        <f t="shared" si="6"/>
+        <v>$u += "https://www.mtl.moe.edu.sg/xuele/PYCB/Files/sound-moe_l2_learn_pi.mp3"</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A57" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B57">
+        <f t="shared" si="4"/>
+        <v>35</v>
+      </c>
+      <c r="C57" t="str">
+        <f t="shared" si="5"/>
+        <v>sound-moe_l2_learn_po.mp3</v>
+      </c>
+      <c r="D57" t="str">
+        <f t="shared" si="6"/>
+        <v>$u += "https://www.mtl.moe.edu.sg/xuele/PYCB/Files/sound-moe_l2_learn_po.mp3"</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A58" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B58">
+        <f t="shared" si="4"/>
+        <v>35</v>
+      </c>
+      <c r="C58" t="str">
+        <f t="shared" si="5"/>
+        <v>sound-moe_l2_learn_pu.mp3</v>
+      </c>
+      <c r="D58" t="str">
+        <f t="shared" si="6"/>
+        <v>$u += "https://www.mtl.moe.edu.sg/xuele/PYCB/Files/sound-moe_l2_learn_pu.mp3"</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A59" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B59">
+        <f t="shared" si="4"/>
+        <v>34</v>
+      </c>
+      <c r="C59" t="str">
+        <f t="shared" si="5"/>
+        <v>sound-moe_l2_learn_t.mp3</v>
+      </c>
+      <c r="D59" t="str">
+        <f t="shared" si="6"/>
+        <v>$u += "https://www.mtl.moe.edu.sg/xuele/PYCB/Files/sound-moe_l2_learn_t.mp3"</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A60" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B60">
+        <f t="shared" si="4"/>
+        <v>35</v>
+      </c>
+      <c r="C60" t="str">
+        <f t="shared" si="5"/>
+        <v>sound-moe_l2_learn_ta.mp3</v>
+      </c>
+      <c r="D60" t="str">
+        <f t="shared" si="6"/>
+        <v>$u += "https://www.mtl.moe.edu.sg/xuele/PYCB/Files/sound-moe_l2_learn_ta.mp3"</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A61" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B61">
+        <f t="shared" si="4"/>
+        <v>35</v>
+      </c>
+      <c r="C61" t="str">
+        <f t="shared" si="5"/>
+        <v>sound-moe_l2_learn_te.mp3</v>
+      </c>
+      <c r="D61" t="str">
+        <f t="shared" si="6"/>
+        <v>$u += "https://www.mtl.moe.edu.sg/xuele/PYCB/Files/sound-moe_l2_learn_te.mp3"</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A62" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B62">
+        <f t="shared" si="4"/>
+        <v>35</v>
+      </c>
+      <c r="C62" t="str">
+        <f t="shared" si="5"/>
+        <v>sound-moe_l2_learn_ti.mp3</v>
+      </c>
+      <c r="D62" t="str">
+        <f t="shared" si="6"/>
+        <v>$u += "https://www.mtl.moe.edu.sg/xuele/PYCB/Files/sound-moe_l2_learn_ti.mp3"</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A63" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B63">
+        <f t="shared" si="4"/>
+        <v>36</v>
+      </c>
+      <c r="C63" t="str">
+        <f t="shared" si="5"/>
+        <v>sound-moe_l2_learn_ti1.mp3</v>
+      </c>
+      <c r="D63" t="str">
+        <f t="shared" si="6"/>
+        <v>$u += "https://www.mtl.moe.edu.sg/xuele/PYCB/Files/sound-moe_l2_learn_ti1.mp3"</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A64" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B64">
+        <f t="shared" si="4"/>
+        <v>35</v>
+      </c>
+      <c r="C64" t="str">
+        <f t="shared" si="5"/>
+        <v>sound-moe_l2_learn_tu.mp3</v>
+      </c>
+      <c r="D64" t="str">
+        <f t="shared" si="6"/>
+        <v>$u += "https://www.mtl.moe.edu.sg/xuele/PYCB/Files/sound-moe_l2_learn_tu.mp3"</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A65" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B65">
+        <f t="shared" si="4"/>
+        <v>36</v>
+      </c>
+      <c r="C65" t="str">
+        <f t="shared" si="5"/>
+        <v>sound-moe_l2_learn_tu3.mp3</v>
+      </c>
+      <c r="D65" t="str">
+        <f t="shared" si="6"/>
+        <v>$u += "https://www.mtl.moe.edu.sg/xuele/PYCB/Files/sound-moe_l2_learn_tu3.mp3"</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A66" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B66">
+        <f t="shared" si="4"/>
+        <v>37</v>
+      </c>
+      <c r="C66" t="str">
+        <f t="shared" si="5"/>
+        <v>sound-moe_l2_learn_yifu.mp3</v>
+      </c>
+      <c r="D66" t="str">
+        <f t="shared" si="6"/>
+        <v>$u += "https://www.mtl.moe.edu.sg/xuele/PYCB/Files/sound-moe_l2_learn_yifu.mp3"</v>
       </c>
     </row>
   </sheetData>
@@ -1103,10 +1783,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AED8493C-21C1-40BF-B035-F3C9044BF655}">
-  <dimension ref="A1:B30"/>
+  <dimension ref="A1:B64"/>
   <sheetViews>
-    <sheetView topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B30"/>
+    <sheetView topLeftCell="A62" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1122,31 +1802,31 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="1" t="s">
         <v>7</v>
@@ -1164,7 +1844,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="1" t="s">
         <v>10</v>
@@ -1212,13 +1892,13 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="1" t="s">
         <v>19</v>
@@ -1242,7 +1922,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="1" t="s">
         <v>23</v>
@@ -1266,7 +1946,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="1" t="s">
         <v>27</v>
@@ -1290,6 +1970,210 @@
         <v>30</v>
       </c>
     </row>
+    <row r="31" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A32" s="1"/>
+      <c r="B32" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A34" s="1"/>
+      <c r="B34" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A35" s="1"/>
+      <c r="B35" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A36" s="1"/>
+      <c r="B36" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A37" s="1"/>
+      <c r="B37" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A38" s="1"/>
+      <c r="B38" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A39" s="1"/>
+      <c r="B39" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A40" s="1"/>
+      <c r="B40" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A41" s="1"/>
+      <c r="B41" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A42" s="1"/>
+      <c r="B42" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A43" s="1"/>
+      <c r="B43" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A44" s="1"/>
+      <c r="B44" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A45" s="1"/>
+      <c r="B45" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A46" s="1"/>
+      <c r="B46" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A47" s="1"/>
+      <c r="B47" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A48" s="1"/>
+      <c r="B48" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A49" s="1"/>
+      <c r="B49" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A50" s="1"/>
+      <c r="B50" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A51" s="1"/>
+      <c r="B51" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A52" s="1"/>
+      <c r="B52" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A53" s="1"/>
+      <c r="B53" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A54" s="1"/>
+      <c r="B54" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A55" s="1"/>
+      <c r="B55" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A56" s="1"/>
+      <c r="B56" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A57" s="1"/>
+      <c r="B57" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A58" s="1"/>
+      <c r="B58" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A59" s="1"/>
+      <c r="B59" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A60" s="1"/>
+      <c r="B60" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A61" s="1"/>
+      <c r="B61" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A62" s="1"/>
+      <c r="B62" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A63" s="1"/>
+      <c r="B63" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A64" s="1"/>
+      <c r="B64" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
